--- a/dengue data converted /2010_dengue_extracted.xlsx
+++ b/dengue data converted /2010_dengue_extracted.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url=""/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemitigrato/Desktop/topic04_team01/dengue data converted /"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047057FF-DB11-EF43-924D-03348F86BF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28260" windowHeight="11385"/>
+    <workbookView xWindow="-27320" yWindow="-2080" windowWidth="27320" windowHeight="18920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,10 +27,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
-    <t xml:space="preserve">Table 11 Reported  Cases  by Province and by Month, Thailand, 2553 (2010) -    D.H.F, Total (26, 27, 66)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reporting areas</t>
+    <t>Table 11 Reported  Cases  by Province and by Month, Thailand, 2553 (2010) -    D.H.F, Total (26, 27, 66)</t>
+  </si>
+  <si>
+    <t>Reporting areas</t>
   </si>
   <si>
     <t xml:space="preserve"> Total</t>
@@ -74,7 +75,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t xml:space="preserve">Central Region</t>
+    <t>Central Region</t>
   </si>
   <si>
     <t>Bangkok</t>
@@ -86,10 +87,10 @@
     <t>Nonthaburi</t>
   </si>
   <si>
-    <t xml:space="preserve">P.Nakhon S.Ayutthaya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pathum Thani</t>
+    <t>P.Nakhon S.Ayutthaya</t>
+  </si>
+  <si>
+    <t>Pathum Thani</t>
   </si>
   <si>
     <t>Saraburi</t>
@@ -98,16 +99,16 @@
     <t>Zone:2</t>
   </si>
   <si>
-    <t xml:space="preserve">Ang Thong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chai Nat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lop Buri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sing Buri</t>
+    <t>Ang Thong</t>
+  </si>
+  <si>
+    <t>Chai Nat</t>
+  </si>
+  <si>
+    <t>Lop Buri</t>
+  </si>
+  <si>
+    <t>Sing Buri</t>
   </si>
   <si>
     <t>Zone:3</t>
@@ -116,16 +117,16 @@
     <t>Chachoengsao</t>
   </si>
   <si>
-    <t xml:space="preserve">Nakhon Nayok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prachin Buri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sa Kaeo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samut Prakan</t>
+    <t>Nakhon Nayok</t>
+  </si>
+  <si>
+    <t>Prachin Buri</t>
+  </si>
+  <si>
+    <t>Sa Kaeo</t>
+  </si>
+  <si>
+    <t>Samut Prakan</t>
   </si>
   <si>
     <t>Zone:4</t>
@@ -134,13 +135,13 @@
     <t>Kanchanaburi</t>
   </si>
   <si>
-    <t xml:space="preserve">Nakhon Pathom</t>
+    <t>Nakhon Pathom</t>
   </si>
   <si>
     <t>Ratchaburi</t>
   </si>
   <si>
-    <t xml:space="preserve">Suphan Buri</t>
+    <t>Suphan Buri</t>
   </si>
   <si>
     <t>Zone:5</t>
@@ -149,13 +150,13 @@
     <t>Phetchaburi</t>
   </si>
   <si>
-    <t xml:space="preserve">Prachuap Khiri Khan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samut Sakhon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samut Songkhram</t>
+    <t>Prachuap Khiri Khan</t>
+  </si>
+  <si>
+    <t>Samut Sakhon</t>
+  </si>
+  <si>
+    <t>Samut Songkhram</t>
   </si>
   <si>
     <t>Zone:9</t>
@@ -164,7 +165,7 @@
     <t>Chanthaburi</t>
   </si>
   <si>
-    <t xml:space="preserve">Chon Buri</t>
+    <t>Chon Buri</t>
   </si>
   <si>
     <t>Rayong</t>
@@ -173,7 +174,7 @@
     <t>Trat</t>
   </si>
   <si>
-    <t xml:space="preserve">Southern Region</t>
+    <t>Southern Region</t>
   </si>
   <si>
     <t>Zone:6</t>
@@ -182,13 +183,13 @@
     <t>Chumphon</t>
   </si>
   <si>
-    <t xml:space="preserve">Nakhon Si Thammarat</t>
+    <t>Nakhon Si Thammarat</t>
   </si>
   <si>
     <t>Phatthalung</t>
   </si>
   <si>
-    <t xml:space="preserve">Surat Thani</t>
+    <t>Surat Thani</t>
   </si>
   <si>
     <t>Zone:7</t>
@@ -227,7 +228,7 @@
     <t>Yala</t>
   </si>
   <si>
-    <t xml:space="preserve">North-Eastern Region</t>
+    <t>North-Eastern Region</t>
   </si>
   <si>
     <t>Zone:10</t>
@@ -236,13 +237,13 @@
     <t>Loei</t>
   </si>
   <si>
-    <t xml:space="preserve">Nong Bua Lam Phu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nong Khai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Udon Thani</t>
+    <t>Nong Bua Lam Phu</t>
+  </si>
+  <si>
+    <t>Nong Khai</t>
+  </si>
+  <si>
+    <t>Udon Thani</t>
   </si>
   <si>
     <t>Zone:11</t>
@@ -251,10 +252,10 @@
     <t>Mukdahan</t>
   </si>
   <si>
-    <t xml:space="preserve">Nakhon Phanom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sakon Nakhon</t>
+    <t>Nakhon Phanom</t>
+  </si>
+  <si>
+    <t>Sakon Nakhon</t>
   </si>
   <si>
     <t>Zone:12</t>
@@ -263,25 +264,25 @@
     <t>Kalasin</t>
   </si>
   <si>
-    <t xml:space="preserve">Khon Kaen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maha Sarakham</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roi Et</t>
+    <t>Khon Kaen</t>
+  </si>
+  <si>
+    <t>Maha Sarakham</t>
+  </si>
+  <si>
+    <t>Roi Et</t>
   </si>
   <si>
     <t>Zone:13</t>
   </si>
   <si>
-    <t xml:space="preserve">Amnat Charoen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si Sa Ket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ubon Ratchathani</t>
+    <t>Amnat Charoen</t>
+  </si>
+  <si>
+    <t>Si Sa Ket</t>
+  </si>
+  <si>
+    <t>Ubon Ratchathani</t>
   </si>
   <si>
     <t>Yasothon</t>
@@ -290,25 +291,25 @@
     <t>Zone:14</t>
   </si>
   <si>
-    <t xml:space="preserve">Buri Ram</t>
+    <t>Buri Ram</t>
   </si>
   <si>
     <t>Chaiyaphum</t>
   </si>
   <si>
-    <t xml:space="preserve">Nakhon Ratchasima</t>
+    <t>Nakhon Ratchasima</t>
   </si>
   <si>
     <t>Surin</t>
   </si>
   <si>
-    <t xml:space="preserve">Northern Region</t>
+    <t>Northern Region</t>
   </si>
   <si>
     <t>Zone:15</t>
   </si>
   <si>
-    <t xml:space="preserve">Chiang Mai</t>
+    <t>Chiang Mai</t>
   </si>
   <si>
     <t>Lampang</t>
@@ -317,13 +318,13 @@
     <t>Lamphun</t>
   </si>
   <si>
-    <t xml:space="preserve">Mae Hong Son</t>
+    <t>Mae Hong Son</t>
   </si>
   <si>
     <t>Zone:16</t>
   </si>
   <si>
-    <t xml:space="preserve">Chiang Rai</t>
+    <t>Chiang Rai</t>
   </si>
   <si>
     <t>Nan</t>
@@ -356,23 +357,23 @@
     <t>Zone:18</t>
   </si>
   <si>
-    <t xml:space="preserve">Kamphaeng Phet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nakhon Sawan</t>
+    <t>Kamphaeng Phet</t>
+  </si>
+  <si>
+    <t>Nakhon Sawan</t>
   </si>
   <si>
     <t>Phichit</t>
   </si>
   <si>
-    <t xml:space="preserve">Uthai Thani</t>
+    <t>Uthai Thani</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -385,9 +386,9 @@
       <family val="2"/>
     </font>
     <font>
-      <color rgb="FFFFFFFF"/>
       <b/>
       <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
@@ -447,43 +448,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -760,4431 +764,4438 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
+      <selection sqref="A1:N1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24"/>
     <col min="2" max="2" width="8"/>
-    <col min="3" max="3" width="6"/>
-    <col min="4" max="4" width="6"/>
-    <col min="5" max="5" width="6"/>
-    <col min="6" max="6" width="6"/>
-    <col min="7" max="7" width="6"/>
-    <col min="8" max="8" width="6"/>
-    <col min="9" max="9" width="6"/>
-    <col min="10" max="10" width="6"/>
+    <col min="3" max="10" width="6"/>
     <col min="11" max="11" width="7"/>
-    <col min="12" max="12" width="6"/>
-    <col min="13" max="13" width="6"/>
+    <col min="12" max="13" width="6"/>
     <col min="14" max="14" width="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25" ht="14" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+    </row>
+    <row r="2" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>116947</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>3626</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>3710</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>4550</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>4291</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>7616</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>13876</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>21455</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>23462</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>16492</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <v>8897</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="4">
         <v>5723</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="4">
         <v>3249</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>35112</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>1924</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>1911</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>2053</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>1557</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>1926</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <v>2968</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <v>4467</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <v>5186</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="6">
         <v>4810</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="6">
         <v>3587</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="6">
         <v>3016</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="6">
         <v>1707</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>10912</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>617</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>621</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>591</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>381</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>348</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>536</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>901</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>1399</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <v>1576</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <v>1654</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <v>1462</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="8">
         <v>826</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>3550</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>271</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>235</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>254</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>113</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>106</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>201</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>393</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>549</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>526</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <v>389</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <v>342</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="4">
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>1582</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>136</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>111</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>112</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>36</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>40</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>96</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <v>166</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <v>210</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="8">
         <v>204</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="8">
         <v>198</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="8">
         <v>182</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="8">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>562</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>53</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>45</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>28</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>30</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>14</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>19</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <v>61</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="8">
         <v>83</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="8">
         <v>97</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="8">
         <v>58</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="8">
         <v>49</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>775</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>63</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>51</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>91</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>30</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>27</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>44</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>75</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="8">
         <v>121</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="8">
         <v>114</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="8">
         <v>68</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="8">
         <v>54</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="8">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>631</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>19</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>28</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>23</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>17</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>25</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>42</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <v>91</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="8">
         <v>135</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="8">
         <v>111</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="8">
         <v>65</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="8">
         <v>57</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="8">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>1798</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>60</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>92</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>108</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>65</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>46</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>102</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>298</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>488</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <v>353</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <v>84</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="4">
         <v>57</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>308</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>13</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>22</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>21</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>18</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>12</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>22</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <v>47</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="8">
         <v>73</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="8">
         <v>52</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="8">
         <v>16</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="8">
         <v>7</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>205</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>10</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>5</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>8</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>18</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>9</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <v>11</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <v>22</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="8">
         <v>37</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="8">
         <v>45</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="8">
         <v>17</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="8">
         <v>16</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>1218</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>33</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>64</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>77</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>25</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>24</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <v>65</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <v>225</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="8">
         <v>358</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="8">
         <v>239</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="8">
         <v>41</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="8">
         <v>34</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="8">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>67</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>4</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>1</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>2</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>4</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <v>1</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <v>4</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <v>4</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="8">
         <v>20</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="8">
         <v>17</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="8">
         <v>10</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="8">
         <v>0</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>5394</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>249</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>262</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>368</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>245</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>370</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>603</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <v>812</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <v>831</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="4">
         <v>681</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="4">
         <v>487</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="4">
         <v>333</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="4">
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>975</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>48</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>55</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>58</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>51</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <v>59</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <v>76</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="8">
         <v>145</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="8">
         <v>166</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="8">
         <v>139</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="8">
         <v>117</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="8">
         <v>61</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N17" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>99</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>3</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>10</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>6</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>2</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <v>10</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <v>18</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="8">
         <v>8</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="8">
         <v>21</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="8">
         <v>9</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="8">
         <v>11</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="8">
         <v>1</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>1348</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>34</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>31</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <v>49</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>71</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <v>135</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="8">
         <v>244</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="8">
         <v>283</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="8">
         <v>209</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="8">
         <v>156</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="8">
         <v>75</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="8">
         <v>39</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N19" s="8">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>812</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>18</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>41</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>51</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>28</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="8">
         <v>77</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="8">
         <v>141</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="8">
         <v>162</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="8">
         <v>157</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="8">
         <v>106</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="8">
         <v>20</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="8">
         <v>7</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N20" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>2160</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>146</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>125</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <v>204</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>93</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="8">
         <v>89</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="8">
         <v>124</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="8">
         <v>214</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="8">
         <v>278</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="8">
         <v>271</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="8">
         <v>264</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="8">
         <v>225</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N21" s="8">
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>3982</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>302</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>299</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>245</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <v>144</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <v>127</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="4">
         <v>198</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="4">
         <v>387</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="4">
         <v>523</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="4">
         <v>603</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="4">
         <v>503</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="4">
         <v>401</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" s="4">
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>710</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <v>37</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>49</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="8">
         <v>40</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="8">
         <v>20</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="8">
         <v>31</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="8">
         <v>59</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="8">
         <v>111</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="8">
         <v>122</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="8">
         <v>106</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="8">
         <v>64</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="8">
         <v>48</v>
       </c>
-      <c r="N23" s="9">
+      <c r="N23" s="8">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>1535</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <v>76</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>80</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <v>96</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <v>43</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="8">
         <v>49</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="8">
         <v>62</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="8">
         <v>110</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="8">
         <v>164</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="8">
         <v>236</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24" s="8">
         <v>236</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M24" s="8">
         <v>226</v>
       </c>
-      <c r="N24" s="9">
+      <c r="N24" s="8">
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="8">
         <v>1122</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <v>119</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>87</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="8">
         <v>45</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <v>50</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="8">
         <v>33</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="8">
         <v>60</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="8">
         <v>127</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="8">
         <v>172</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="8">
         <v>169</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L25" s="8">
         <v>131</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M25" s="8">
         <v>84</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N25" s="8">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="8">
         <v>615</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <v>70</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <v>83</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <v>64</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <v>31</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="8">
         <v>14</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="8">
         <v>17</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="8">
         <v>39</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="8">
         <v>65</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K26" s="8">
         <v>92</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L26" s="8">
         <v>72</v>
       </c>
-      <c r="M26" s="9">
+      <c r="M26" s="8">
         <v>43</v>
       </c>
-      <c r="N26" s="9">
+      <c r="N26" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A27" s="10" t="s">
+    <row r="27" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>2174</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <v>186</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>130</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <v>142</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="4">
         <v>153</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="4">
         <v>116</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="4">
         <v>138</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="4">
         <v>250</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="4">
         <v>245</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="4">
         <v>268</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="4">
         <v>185</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="4">
         <v>218</v>
       </c>
-      <c r="N27" s="5">
+      <c r="N27" s="4">
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="8">
         <v>427</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="8">
         <v>26</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="8">
         <v>25</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="8">
         <v>54</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="8">
         <v>77</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="8">
         <v>31</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="8">
         <v>31</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="8">
         <v>40</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="8">
         <v>36</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K28" s="8">
         <v>34</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L28" s="8">
         <v>37</v>
       </c>
-      <c r="M28" s="9">
+      <c r="M28" s="8">
         <v>20</v>
       </c>
-      <c r="N28" s="9">
+      <c r="N28" s="8">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="8">
         <v>824</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="8">
         <v>17</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="8">
         <v>15</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="8">
         <v>29</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="8">
         <v>37</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="8">
         <v>65</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="8">
         <v>73</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="8">
         <v>127</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="8">
         <v>117</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K29" s="8">
         <v>141</v>
       </c>
-      <c r="L29" s="9">
+      <c r="L29" s="8">
         <v>91</v>
       </c>
-      <c r="M29" s="9">
+      <c r="M29" s="8">
         <v>77</v>
       </c>
-      <c r="N29" s="9">
+      <c r="N29" s="8">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="8">
         <v>810</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="8">
         <v>136</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="8">
         <v>79</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="8">
         <v>50</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="8">
         <v>32</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="8">
         <v>13</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="8">
         <v>30</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="8">
         <v>76</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="8">
         <v>80</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K30" s="8">
         <v>81</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L30" s="8">
         <v>49</v>
       </c>
-      <c r="M30" s="9">
+      <c r="M30" s="8">
         <v>105</v>
       </c>
-      <c r="N30" s="9">
+      <c r="N30" s="8">
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="8">
         <v>113</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="8">
         <v>7</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <v>11</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="8">
         <v>9</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="8">
         <v>7</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="8">
         <v>7</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="8">
         <v>4</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="8">
         <v>7</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="8">
         <v>12</v>
       </c>
-      <c r="K31" s="9">
+      <c r="K31" s="8">
         <v>12</v>
       </c>
-      <c r="L31" s="9">
+      <c r="L31" s="8">
         <v>8</v>
       </c>
-      <c r="M31" s="9">
+      <c r="M31" s="8">
         <v>16</v>
       </c>
-      <c r="N31" s="9">
+      <c r="N31" s="8">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>7302</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>239</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>272</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="4">
         <v>345</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="4">
         <v>456</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="4">
         <v>813</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="4">
         <v>1190</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="4">
         <v>1426</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="4">
         <v>1151</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="4">
         <v>803</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32" s="4">
         <v>285</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="4">
         <v>203</v>
       </c>
-      <c r="N32" s="5">
+      <c r="N32" s="4">
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="8">
         <v>2222</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="8">
         <v>28</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="8">
         <v>60</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="8">
         <v>92</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="8">
         <v>149</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="8">
         <v>352</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="8">
         <v>487</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="8">
         <v>456</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="8">
         <v>255</v>
       </c>
-      <c r="K33" s="9">
+      <c r="K33" s="8">
         <v>172</v>
       </c>
-      <c r="L33" s="9">
+      <c r="L33" s="8">
         <v>85</v>
       </c>
-      <c r="M33" s="9">
+      <c r="M33" s="8">
         <v>53</v>
       </c>
-      <c r="N33" s="9">
+      <c r="N33" s="8">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A34" s="8" t="s">
+    <row r="34" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="8">
         <v>2280</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="8">
         <v>133</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="8">
         <v>135</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="8">
         <v>140</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="8">
         <v>142</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="8">
         <v>231</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="8">
         <v>291</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I34" s="8">
         <v>402</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="8">
         <v>457</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K34" s="8">
         <v>319</v>
       </c>
-      <c r="L34" s="9">
+      <c r="L34" s="8">
         <v>30</v>
       </c>
-      <c r="M34" s="9">
+      <c r="M34" s="8">
         <v>0</v>
       </c>
-      <c r="N34" s="9">
+      <c r="N34" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A35" s="8" t="s">
+    <row r="35" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="8">
         <v>2134</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="8">
         <v>62</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="8">
         <v>65</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="8">
         <v>85</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="8">
         <v>109</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="8">
         <v>143</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="8">
         <v>293</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="8">
         <v>431</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="8">
         <v>353</v>
       </c>
-      <c r="K35" s="9">
+      <c r="K35" s="8">
         <v>259</v>
       </c>
-      <c r="L35" s="9">
+      <c r="L35" s="8">
         <v>139</v>
       </c>
-      <c r="M35" s="9">
+      <c r="M35" s="8">
         <v>125</v>
       </c>
-      <c r="N35" s="9">
+      <c r="N35" s="8">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A36" s="8" t="s">
+    <row r="36" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="8">
         <v>666</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="8">
         <v>16</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="8">
         <v>12</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="8">
         <v>28</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="8">
         <v>56</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="8">
         <v>87</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="8">
         <v>119</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="8">
         <v>137</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J36" s="8">
         <v>86</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K36" s="8">
         <v>53</v>
       </c>
-      <c r="L36" s="9">
+      <c r="L36" s="8">
         <v>31</v>
       </c>
-      <c r="M36" s="9">
+      <c r="M36" s="8">
         <v>25</v>
       </c>
-      <c r="N36" s="9">
+      <c r="N36" s="8">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A37" s="6" t="s">
+    <row r="37" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="6">
         <v>30167</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="6">
         <v>1009</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="6">
         <v>847</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="6">
         <v>893</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="6">
         <v>1105</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="6">
         <v>2227</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="6">
         <v>3920</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="6">
         <v>5933</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J37" s="6">
         <v>5575</v>
       </c>
-      <c r="K37" s="7">
+      <c r="K37" s="6">
         <v>3904</v>
       </c>
-      <c r="L37" s="7">
+      <c r="L37" s="6">
         <v>2490</v>
       </c>
-      <c r="M37" s="7">
+      <c r="M37" s="6">
         <v>1433</v>
       </c>
-      <c r="N37" s="7">
+      <c r="N37" s="6">
         <v>831</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="4">
         <v>10961</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <v>284</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="4">
         <v>271</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="4">
         <v>297</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="4">
         <v>343</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="4">
         <v>690</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="4">
         <v>1219</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38" s="4">
         <v>2147</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38" s="4">
         <v>2187</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K38" s="4">
         <v>1587</v>
       </c>
-      <c r="L38" s="5">
+      <c r="L38" s="4">
         <v>1013</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="4">
         <v>585</v>
       </c>
-      <c r="N38" s="5">
+      <c r="N38" s="4">
         <v>338</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A39" s="8" t="s">
+    <row r="39" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="8">
         <v>668</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="8">
         <v>19</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="8">
         <v>13</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="8">
         <v>30</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="8">
         <v>34</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="8">
         <v>56</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="8">
         <v>95</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="8">
         <v>84</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J39" s="8">
         <v>68</v>
       </c>
-      <c r="K39" s="9">
+      <c r="K39" s="8">
         <v>103</v>
       </c>
-      <c r="L39" s="9">
+      <c r="L39" s="8">
         <v>82</v>
       </c>
-      <c r="M39" s="9">
+      <c r="M39" s="8">
         <v>61</v>
       </c>
-      <c r="N39" s="9">
+      <c r="N39" s="8">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A40" s="8" t="s">
+    <row r="40" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="8">
         <v>6039</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="8">
         <v>157</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="8">
         <v>132</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="8">
         <v>164</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="8">
         <v>177</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="8">
         <v>361</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" s="8">
         <v>655</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I40" s="8">
         <v>1367</v>
       </c>
-      <c r="J40" s="9">
+      <c r="J40" s="8">
         <v>1209</v>
       </c>
-      <c r="K40" s="9">
+      <c r="K40" s="8">
         <v>833</v>
       </c>
-      <c r="L40" s="9">
+      <c r="L40" s="8">
         <v>529</v>
       </c>
-      <c r="M40" s="9">
+      <c r="M40" s="8">
         <v>294</v>
       </c>
-      <c r="N40" s="9">
+      <c r="N40" s="8">
         <v>161</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A41" s="8" t="s">
+    <row r="41" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="8">
         <v>2078</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="8">
         <v>54</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="8">
         <v>78</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="8">
         <v>43</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="8">
         <v>49</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="8">
         <v>107</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="8">
         <v>176</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="8">
         <v>247</v>
       </c>
-      <c r="J41" s="9">
+      <c r="J41" s="8">
         <v>435</v>
       </c>
-      <c r="K41" s="9">
+      <c r="K41" s="8">
         <v>355</v>
       </c>
-      <c r="L41" s="9">
+      <c r="L41" s="8">
         <v>270</v>
       </c>
-      <c r="M41" s="9">
+      <c r="M41" s="8">
         <v>159</v>
       </c>
-      <c r="N41" s="9">
+      <c r="N41" s="8">
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A42" s="8" t="s">
+    <row r="42" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="8">
         <v>2176</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="8">
         <v>54</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="8">
         <v>48</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="8">
         <v>60</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="8">
         <v>83</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="8">
         <v>166</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H42" s="8">
         <v>293</v>
       </c>
-      <c r="I42" s="9">
+      <c r="I42" s="8">
         <v>449</v>
       </c>
-      <c r="J42" s="9">
+      <c r="J42" s="8">
         <v>475</v>
       </c>
-      <c r="K42" s="9">
+      <c r="K42" s="8">
         <v>296</v>
       </c>
-      <c r="L42" s="9">
+      <c r="L42" s="8">
         <v>132</v>
       </c>
-      <c r="M42" s="9">
+      <c r="M42" s="8">
         <v>71</v>
       </c>
-      <c r="N42" s="9">
+      <c r="N42" s="8">
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="4">
         <v>4053</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="4">
         <v>149</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="4">
         <v>132</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="4">
         <v>146</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="4">
         <v>175</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="4">
         <v>355</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="4">
         <v>719</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I43" s="4">
         <v>874</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43" s="4">
         <v>637</v>
       </c>
-      <c r="K43" s="5">
+      <c r="K43" s="4">
         <v>415</v>
       </c>
-      <c r="L43" s="5">
+      <c r="L43" s="4">
         <v>246</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="4">
         <v>122</v>
       </c>
-      <c r="N43" s="5">
+      <c r="N43" s="4">
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A44" s="8" t="s">
+    <row r="44" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="8">
         <v>1678</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="8">
         <v>62</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="8">
         <v>51</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="8">
         <v>60</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="8">
         <v>57</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="8">
         <v>170</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H44" s="8">
         <v>274</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I44" s="8">
         <v>344</v>
       </c>
-      <c r="J44" s="9">
+      <c r="J44" s="8">
         <v>304</v>
       </c>
-      <c r="K44" s="9">
+      <c r="K44" s="8">
         <v>163</v>
       </c>
-      <c r="L44" s="9">
+      <c r="L44" s="8">
         <v>89</v>
       </c>
-      <c r="M44" s="9">
+      <c r="M44" s="8">
         <v>56</v>
       </c>
-      <c r="N44" s="9">
+      <c r="N44" s="8">
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A45" s="8" t="s">
+    <row r="45" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="8">
         <v>590</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="8">
         <v>21</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="8">
         <v>11</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="8">
         <v>14</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="8">
         <v>28</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="8">
         <v>45</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H45" s="8">
         <v>89</v>
       </c>
-      <c r="I45" s="9">
+      <c r="I45" s="8">
         <v>119</v>
       </c>
-      <c r="J45" s="9">
+      <c r="J45" s="8">
         <v>105</v>
       </c>
-      <c r="K45" s="9">
+      <c r="K45" s="8">
         <v>85</v>
       </c>
-      <c r="L45" s="9">
+      <c r="L45" s="8">
         <v>48</v>
       </c>
-      <c r="M45" s="9">
+      <c r="M45" s="8">
         <v>18</v>
       </c>
-      <c r="N45" s="9">
+      <c r="N45" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A46" s="8" t="s">
+    <row r="46" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="8">
         <v>654</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="8">
         <v>28</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="8">
         <v>49</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="8">
         <v>44</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46" s="8">
         <v>41</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="8">
         <v>50</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H46" s="8">
         <v>129</v>
       </c>
-      <c r="I46" s="9">
+      <c r="I46" s="8">
         <v>130</v>
       </c>
-      <c r="J46" s="9">
+      <c r="J46" s="8">
         <v>69</v>
       </c>
-      <c r="K46" s="9">
+      <c r="K46" s="8">
         <v>61</v>
       </c>
-      <c r="L46" s="9">
+      <c r="L46" s="8">
         <v>29</v>
       </c>
-      <c r="M46" s="9">
+      <c r="M46" s="8">
         <v>6</v>
       </c>
-      <c r="N46" s="9">
+      <c r="N46" s="8">
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A47" s="8" t="s">
+    <row r="47" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="8">
         <v>180</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="8">
         <v>9</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="8">
         <v>5</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="8">
         <v>13</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F47" s="8">
         <v>18</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G47" s="8">
         <v>24</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H47" s="8">
         <v>32</v>
       </c>
-      <c r="I47" s="9">
+      <c r="I47" s="8">
         <v>42</v>
       </c>
-      <c r="J47" s="9">
+      <c r="J47" s="8">
         <v>18</v>
       </c>
-      <c r="K47" s="9">
+      <c r="K47" s="8">
         <v>8</v>
       </c>
-      <c r="L47" s="9">
+      <c r="L47" s="8">
         <v>9</v>
       </c>
-      <c r="M47" s="9">
+      <c r="M47" s="8">
         <v>2</v>
       </c>
-      <c r="N47" s="9">
+      <c r="N47" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A48" s="8" t="s">
+    <row r="48" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="8">
         <v>951</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="8">
         <v>29</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="8">
         <v>16</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="8">
         <v>15</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48" s="8">
         <v>31</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="8">
         <v>66</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H48" s="8">
         <v>195</v>
       </c>
-      <c r="I48" s="9">
+      <c r="I48" s="8">
         <v>239</v>
       </c>
-      <c r="J48" s="9">
+      <c r="J48" s="8">
         <v>141</v>
       </c>
-      <c r="K48" s="9">
+      <c r="K48" s="8">
         <v>98</v>
       </c>
-      <c r="L48" s="9">
+      <c r="L48" s="8">
         <v>71</v>
       </c>
-      <c r="M48" s="9">
+      <c r="M48" s="8">
         <v>40</v>
       </c>
-      <c r="N48" s="9">
+      <c r="N48" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A49" s="4" t="s">
+    <row r="49" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="4">
         <v>15153</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="4">
         <v>576</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="4">
         <v>444</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="4">
         <v>450</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49" s="4">
         <v>587</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49" s="4">
         <v>1182</v>
       </c>
-      <c r="H49" s="5">
+      <c r="H49" s="4">
         <v>1982</v>
       </c>
-      <c r="I49" s="5">
+      <c r="I49" s="4">
         <v>2912</v>
       </c>
-      <c r="J49" s="5">
+      <c r="J49" s="4">
         <v>2751</v>
       </c>
-      <c r="K49" s="5">
+      <c r="K49" s="4">
         <v>1902</v>
       </c>
-      <c r="L49" s="5">
+      <c r="L49" s="4">
         <v>1231</v>
       </c>
-      <c r="M49" s="5">
+      <c r="M49" s="4">
         <v>726</v>
       </c>
-      <c r="N49" s="5">
+      <c r="N49" s="4">
         <v>410</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A50" s="8" t="s">
+    <row r="50" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="8">
         <v>3485</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="8">
         <v>86</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="8">
         <v>65</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="8">
         <v>58</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F50" s="8">
         <v>82</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G50" s="8">
         <v>166</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H50" s="8">
         <v>404</v>
       </c>
-      <c r="I50" s="9">
+      <c r="I50" s="8">
         <v>735</v>
       </c>
-      <c r="J50" s="9">
+      <c r="J50" s="8">
         <v>880</v>
       </c>
-      <c r="K50" s="9">
+      <c r="K50" s="8">
         <v>547</v>
       </c>
-      <c r="L50" s="9">
+      <c r="L50" s="8">
         <v>264</v>
       </c>
-      <c r="M50" s="9">
+      <c r="M50" s="8">
         <v>144</v>
       </c>
-      <c r="N50" s="9">
+      <c r="N50" s="8">
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A51" s="8" t="s">
+    <row r="51" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="8">
         <v>3196</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="8">
         <v>135</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="8">
         <v>130</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="8">
         <v>126</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51" s="8">
         <v>139</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G51" s="8">
         <v>259</v>
       </c>
-      <c r="H51" s="9">
+      <c r="H51" s="8">
         <v>310</v>
       </c>
-      <c r="I51" s="9">
+      <c r="I51" s="8">
         <v>596</v>
       </c>
-      <c r="J51" s="9">
+      <c r="J51" s="8">
         <v>637</v>
       </c>
-      <c r="K51" s="9">
+      <c r="K51" s="8">
         <v>427</v>
       </c>
-      <c r="L51" s="9">
+      <c r="L51" s="8">
         <v>241</v>
       </c>
-      <c r="M51" s="9">
+      <c r="M51" s="8">
         <v>141</v>
       </c>
-      <c r="N51" s="9">
+      <c r="N51" s="8">
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A52" s="8" t="s">
+    <row r="52" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="8">
         <v>1062</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="8">
         <v>37</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="8">
         <v>46</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="8">
         <v>35</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F52" s="8">
         <v>59</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G52" s="8">
         <v>186</v>
       </c>
-      <c r="H52" s="9">
+      <c r="H52" s="8">
         <v>219</v>
       </c>
-      <c r="I52" s="9">
+      <c r="I52" s="8">
         <v>132</v>
       </c>
-      <c r="J52" s="9">
+      <c r="J52" s="8">
         <v>99</v>
       </c>
-      <c r="K52" s="9">
+      <c r="K52" s="8">
         <v>87</v>
       </c>
-      <c r="L52" s="9">
+      <c r="L52" s="8">
         <v>70</v>
       </c>
-      <c r="M52" s="9">
+      <c r="M52" s="8">
         <v>41</v>
       </c>
-      <c r="N52" s="9">
+      <c r="N52" s="8">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A53" s="8" t="s">
+    <row r="53" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53" s="8">
         <v>6048</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="8">
         <v>242</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="8">
         <v>154</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="8">
         <v>178</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F53" s="8">
         <v>231</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G53" s="8">
         <v>393</v>
       </c>
-      <c r="H53" s="9">
+      <c r="H53" s="8">
         <v>821</v>
       </c>
-      <c r="I53" s="9">
+      <c r="I53" s="8">
         <v>1211</v>
       </c>
-      <c r="J53" s="9">
+      <c r="J53" s="8">
         <v>964</v>
       </c>
-      <c r="K53" s="9">
+      <c r="K53" s="8">
         <v>742</v>
       </c>
-      <c r="L53" s="9">
+      <c r="L53" s="8">
         <v>555</v>
       </c>
-      <c r="M53" s="9">
+      <c r="M53" s="8">
         <v>337</v>
       </c>
-      <c r="N53" s="9">
+      <c r="N53" s="8">
         <v>220</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A54" s="8" t="s">
+    <row r="54" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="8">
         <v>1362</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="8">
         <v>76</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="8">
         <v>49</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="8">
         <v>53</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F54" s="8">
         <v>76</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G54" s="8">
         <v>178</v>
       </c>
-      <c r="H54" s="9">
+      <c r="H54" s="8">
         <v>228</v>
       </c>
-      <c r="I54" s="9">
+      <c r="I54" s="8">
         <v>238</v>
       </c>
-      <c r="J54" s="9">
+      <c r="J54" s="8">
         <v>171</v>
       </c>
-      <c r="K54" s="9">
+      <c r="K54" s="8">
         <v>99</v>
       </c>
-      <c r="L54" s="9">
+      <c r="L54" s="8">
         <v>101</v>
       </c>
-      <c r="M54" s="9">
+      <c r="M54" s="8">
         <v>63</v>
       </c>
-      <c r="N54" s="9">
+      <c r="N54" s="8">
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A55" s="6" t="s">
+    <row r="55" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="6">
         <v>30414</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="6">
         <v>423</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="6">
         <v>680</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="6">
         <v>1207</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="6">
         <v>1141</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G55" s="6">
         <v>2613</v>
       </c>
-      <c r="H55" s="7">
+      <c r="H55" s="6">
         <v>4864</v>
       </c>
-      <c r="I55" s="7">
+      <c r="I55" s="6">
         <v>6009</v>
       </c>
-      <c r="J55" s="7">
+      <c r="J55" s="6">
         <v>6460</v>
       </c>
-      <c r="K55" s="7">
+      <c r="K55" s="6">
         <v>4324</v>
       </c>
-      <c r="L55" s="7">
+      <c r="L55" s="6">
         <v>1574</v>
       </c>
-      <c r="M55" s="7">
+      <c r="M55" s="6">
         <v>727</v>
       </c>
-      <c r="N55" s="7">
+      <c r="N55" s="6">
         <v>392</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A56" s="4" t="s">
+    <row r="56" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="4">
         <v>3253</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="4">
         <v>78</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="4">
         <v>105</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E56" s="4">
         <v>144</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F56" s="4">
         <v>182</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56" s="4">
         <v>406</v>
       </c>
-      <c r="H56" s="5">
+      <c r="H56" s="4">
         <v>674</v>
       </c>
-      <c r="I56" s="5">
+      <c r="I56" s="4">
         <v>771</v>
       </c>
-      <c r="J56" s="5">
+      <c r="J56" s="4">
         <v>550</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="4">
         <v>222</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="4">
         <v>72</v>
       </c>
-      <c r="M56" s="5">
+      <c r="M56" s="4">
         <v>34</v>
       </c>
-      <c r="N56" s="5">
+      <c r="N56" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A57" s="8" t="s">
+    <row r="57" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B57" s="9">
+      <c r="B57" s="8">
         <v>902</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="8">
         <v>19</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="8">
         <v>36</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="8">
         <v>44</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F57" s="8">
         <v>51</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G57" s="8">
         <v>137</v>
       </c>
-      <c r="H57" s="9">
+      <c r="H57" s="8">
         <v>232</v>
       </c>
-      <c r="I57" s="9">
+      <c r="I57" s="8">
         <v>175</v>
       </c>
-      <c r="J57" s="9">
+      <c r="J57" s="8">
         <v>136</v>
       </c>
-      <c r="K57" s="9">
+      <c r="K57" s="8">
         <v>47</v>
       </c>
-      <c r="L57" s="9">
+      <c r="L57" s="8">
         <v>15</v>
       </c>
-      <c r="M57" s="9">
+      <c r="M57" s="8">
         <v>4</v>
       </c>
-      <c r="N57" s="9">
+      <c r="N57" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A58" s="8" t="s">
+    <row r="58" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="9">
+      <c r="B58" s="8">
         <v>211</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="8">
         <v>8</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58" s="8">
         <v>13</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58" s="8">
         <v>9</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F58" s="8">
         <v>7</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G58" s="8">
         <v>30</v>
       </c>
-      <c r="H58" s="9">
+      <c r="H58" s="8">
         <v>63</v>
       </c>
-      <c r="I58" s="9">
+      <c r="I58" s="8">
         <v>44</v>
       </c>
-      <c r="J58" s="9">
+      <c r="J58" s="8">
         <v>29</v>
       </c>
-      <c r="K58" s="9">
+      <c r="K58" s="8">
         <v>7</v>
       </c>
-      <c r="L58" s="9">
+      <c r="L58" s="8">
         <v>0</v>
       </c>
-      <c r="M58" s="9">
+      <c r="M58" s="8">
         <v>0</v>
       </c>
-      <c r="N58" s="9">
+      <c r="N58" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A59" s="8" t="s">
+    <row r="59" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B59" s="8">
         <v>894</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="8">
         <v>19</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="8">
         <v>25</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59" s="8">
         <v>50</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F59" s="8">
         <v>78</v>
       </c>
-      <c r="G59" s="9">
+      <c r="G59" s="8">
         <v>133</v>
       </c>
-      <c r="H59" s="9">
+      <c r="H59" s="8">
         <v>183</v>
       </c>
-      <c r="I59" s="9">
+      <c r="I59" s="8">
         <v>223</v>
       </c>
-      <c r="J59" s="9">
+      <c r="J59" s="8">
         <v>103</v>
       </c>
-      <c r="K59" s="9">
+      <c r="K59" s="8">
         <v>46</v>
       </c>
-      <c r="L59" s="9">
+      <c r="L59" s="8">
         <v>18</v>
       </c>
-      <c r="M59" s="9">
+      <c r="M59" s="8">
         <v>13</v>
       </c>
-      <c r="N59" s="9">
+      <c r="N59" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A60" s="8" t="s">
+    <row r="60" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B60" s="9">
+      <c r="B60" s="8">
         <v>1246</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="8">
         <v>32</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D60" s="8">
         <v>31</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E60" s="8">
         <v>41</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F60" s="8">
         <v>46</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G60" s="8">
         <v>106</v>
       </c>
-      <c r="H60" s="9">
+      <c r="H60" s="8">
         <v>196</v>
       </c>
-      <c r="I60" s="9">
+      <c r="I60" s="8">
         <v>329</v>
       </c>
-      <c r="J60" s="9">
+      <c r="J60" s="8">
         <v>282</v>
       </c>
-      <c r="K60" s="9">
+      <c r="K60" s="8">
         <v>122</v>
       </c>
-      <c r="L60" s="9">
+      <c r="L60" s="8">
         <v>39</v>
       </c>
-      <c r="M60" s="9">
+      <c r="M60" s="8">
         <v>17</v>
       </c>
-      <c r="N60" s="9">
+      <c r="N60" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A61" s="10" t="s">
+    <row r="61" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="4">
         <v>2904</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="4">
         <v>56</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="4">
         <v>79</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E61" s="4">
         <v>153</v>
       </c>
-      <c r="F61" s="5">
+      <c r="F61" s="4">
         <v>164</v>
       </c>
-      <c r="G61" s="5">
+      <c r="G61" s="4">
         <v>440</v>
       </c>
-      <c r="H61" s="5">
+      <c r="H61" s="4">
         <v>823</v>
       </c>
-      <c r="I61" s="5">
+      <c r="I61" s="4">
         <v>687</v>
       </c>
-      <c r="J61" s="5">
+      <c r="J61" s="4">
         <v>285</v>
       </c>
-      <c r="K61" s="5">
+      <c r="K61" s="4">
         <v>146</v>
       </c>
-      <c r="L61" s="5">
+      <c r="L61" s="4">
         <v>44</v>
       </c>
-      <c r="M61" s="5">
+      <c r="M61" s="4">
         <v>19</v>
       </c>
-      <c r="N61" s="5">
+      <c r="N61" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A62" s="8" t="s">
+    <row r="62" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B62" s="8">
         <v>872</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C62" s="8">
         <v>22</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="8">
         <v>23</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E62" s="8">
         <v>49</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F62" s="8">
         <v>30</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G62" s="8">
         <v>111</v>
       </c>
-      <c r="H62" s="9">
+      <c r="H62" s="8">
         <v>278</v>
       </c>
-      <c r="I62" s="9">
+      <c r="I62" s="8">
         <v>196</v>
       </c>
-      <c r="J62" s="9">
+      <c r="J62" s="8">
         <v>102</v>
       </c>
-      <c r="K62" s="9">
+      <c r="K62" s="8">
         <v>28</v>
       </c>
-      <c r="L62" s="9">
+      <c r="L62" s="8">
         <v>21</v>
       </c>
-      <c r="M62" s="9">
+      <c r="M62" s="8">
         <v>7</v>
       </c>
-      <c r="N62" s="9">
+      <c r="N62" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A63" s="8" t="s">
+    <row r="63" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B63" s="8">
         <v>1013</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63" s="8">
         <v>11</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="8">
         <v>18</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E63" s="8">
         <v>41</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F63" s="8">
         <v>74</v>
       </c>
-      <c r="G63" s="9">
+      <c r="G63" s="8">
         <v>174</v>
       </c>
-      <c r="H63" s="9">
+      <c r="H63" s="8">
         <v>208</v>
       </c>
-      <c r="I63" s="9">
+      <c r="I63" s="8">
         <v>216</v>
       </c>
-      <c r="J63" s="9">
+      <c r="J63" s="8">
         <v>138</v>
       </c>
-      <c r="K63" s="9">
+      <c r="K63" s="8">
         <v>99</v>
       </c>
-      <c r="L63" s="9">
+      <c r="L63" s="8">
         <v>19</v>
       </c>
-      <c r="M63" s="9">
+      <c r="M63" s="8">
         <v>12</v>
       </c>
-      <c r="N63" s="9">
+      <c r="N63" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A64" s="8" t="s">
+    <row r="64" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="9">
+      <c r="B64" s="8">
         <v>1019</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C64" s="8">
         <v>23</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D64" s="8">
         <v>38</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E64" s="8">
         <v>63</v>
       </c>
-      <c r="F64" s="9">
+      <c r="F64" s="8">
         <v>60</v>
       </c>
-      <c r="G64" s="9">
+      <c r="G64" s="8">
         <v>155</v>
       </c>
-      <c r="H64" s="9">
+      <c r="H64" s="8">
         <v>337</v>
       </c>
-      <c r="I64" s="9">
+      <c r="I64" s="8">
         <v>275</v>
       </c>
-      <c r="J64" s="9">
+      <c r="J64" s="8">
         <v>45</v>
       </c>
-      <c r="K64" s="9">
+      <c r="K64" s="8">
         <v>19</v>
       </c>
-      <c r="L64" s="9">
+      <c r="L64" s="8">
         <v>4</v>
       </c>
-      <c r="M64" s="9">
+      <c r="M64" s="8">
         <v>0</v>
       </c>
-      <c r="N64" s="9">
+      <c r="N64" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A65" s="10" t="s">
+    <row r="65" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="4">
         <v>3912</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="4">
         <v>55</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="4">
         <v>146</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E65" s="4">
         <v>205</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F65" s="4">
         <v>91</v>
       </c>
-      <c r="G65" s="5">
+      <c r="G65" s="4">
         <v>211</v>
       </c>
-      <c r="H65" s="5">
+      <c r="H65" s="4">
         <v>486</v>
       </c>
-      <c r="I65" s="5">
+      <c r="I65" s="4">
         <v>653</v>
       </c>
-      <c r="J65" s="5">
+      <c r="J65" s="4">
         <v>967</v>
       </c>
-      <c r="K65" s="5">
+      <c r="K65" s="4">
         <v>702</v>
       </c>
-      <c r="L65" s="5">
+      <c r="L65" s="4">
         <v>234</v>
       </c>
-      <c r="M65" s="5">
+      <c r="M65" s="4">
         <v>82</v>
       </c>
-      <c r="N65" s="5">
+      <c r="N65" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A66" s="8" t="s">
+    <row r="66" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B66" s="9">
+      <c r="B66" s="8">
         <v>465</v>
       </c>
-      <c r="C66" s="9">
+      <c r="C66" s="8">
         <v>19</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D66" s="8">
         <v>52</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E66" s="8">
         <v>63</v>
       </c>
-      <c r="F66" s="9">
+      <c r="F66" s="8">
         <v>13</v>
       </c>
-      <c r="G66" s="9">
+      <c r="G66" s="8">
         <v>28</v>
       </c>
-      <c r="H66" s="9">
+      <c r="H66" s="8">
         <v>74</v>
       </c>
-      <c r="I66" s="9">
+      <c r="I66" s="8">
         <v>59</v>
       </c>
-      <c r="J66" s="9">
+      <c r="J66" s="8">
         <v>61</v>
       </c>
-      <c r="K66" s="9">
+      <c r="K66" s="8">
         <v>63</v>
       </c>
-      <c r="L66" s="9">
+      <c r="L66" s="8">
         <v>20</v>
       </c>
-      <c r="M66" s="9">
+      <c r="M66" s="8">
         <v>8</v>
       </c>
-      <c r="N66" s="9">
+      <c r="N66" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A67" s="8" t="s">
+    <row r="67" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B67" s="9">
+      <c r="B67" s="8">
         <v>1021</v>
       </c>
-      <c r="C67" s="9">
+      <c r="C67" s="8">
         <v>23</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="8">
         <v>52</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E67" s="8">
         <v>75</v>
       </c>
-      <c r="F67" s="9">
+      <c r="F67" s="8">
         <v>23</v>
       </c>
-      <c r="G67" s="9">
+      <c r="G67" s="8">
         <v>59</v>
       </c>
-      <c r="H67" s="9">
+      <c r="H67" s="8">
         <v>115</v>
       </c>
-      <c r="I67" s="9">
+      <c r="I67" s="8">
         <v>182</v>
       </c>
-      <c r="J67" s="9">
+      <c r="J67" s="8">
         <v>197</v>
       </c>
-      <c r="K67" s="9">
+      <c r="K67" s="8">
         <v>171</v>
       </c>
-      <c r="L67" s="9">
+      <c r="L67" s="8">
         <v>65</v>
       </c>
-      <c r="M67" s="9">
+      <c r="M67" s="8">
         <v>15</v>
       </c>
-      <c r="N67" s="9">
+      <c r="N67" s="8">
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A68" s="8" t="s">
+    <row r="68" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B68" s="9">
+      <c r="B68" s="8">
         <v>808</v>
       </c>
-      <c r="C68" s="9">
+      <c r="C68" s="8">
         <v>6</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D68" s="8">
         <v>7</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E68" s="8">
         <v>19</v>
       </c>
-      <c r="F68" s="9">
+      <c r="F68" s="8">
         <v>16</v>
       </c>
-      <c r="G68" s="9">
+      <c r="G68" s="8">
         <v>37</v>
       </c>
-      <c r="H68" s="9">
+      <c r="H68" s="8">
         <v>89</v>
       </c>
-      <c r="I68" s="9">
+      <c r="I68" s="8">
         <v>139</v>
       </c>
-      <c r="J68" s="9">
+      <c r="J68" s="8">
         <v>238</v>
       </c>
-      <c r="K68" s="9">
+      <c r="K68" s="8">
         <v>152</v>
       </c>
-      <c r="L68" s="9">
+      <c r="L68" s="8">
         <v>70</v>
       </c>
-      <c r="M68" s="9">
+      <c r="M68" s="8">
         <v>23</v>
       </c>
-      <c r="N68" s="9">
+      <c r="N68" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A69" s="8" t="s">
+    <row r="69" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B69" s="9">
+      <c r="B69" s="8">
         <v>1618</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C69" s="8">
         <v>7</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D69" s="8">
         <v>35</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E69" s="8">
         <v>48</v>
       </c>
-      <c r="F69" s="9">
+      <c r="F69" s="8">
         <v>39</v>
       </c>
-      <c r="G69" s="9">
+      <c r="G69" s="8">
         <v>87</v>
       </c>
-      <c r="H69" s="9">
+      <c r="H69" s="8">
         <v>208</v>
       </c>
-      <c r="I69" s="9">
+      <c r="I69" s="8">
         <v>273</v>
       </c>
-      <c r="J69" s="9">
+      <c r="J69" s="8">
         <v>471</v>
       </c>
-      <c r="K69" s="9">
+      <c r="K69" s="8">
         <v>316</v>
       </c>
-      <c r="L69" s="9">
+      <c r="L69" s="8">
         <v>79</v>
       </c>
-      <c r="M69" s="9">
+      <c r="M69" s="8">
         <v>36</v>
       </c>
-      <c r="N69" s="9">
+      <c r="N69" s="8">
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A70" s="10" t="s">
+    <row r="70" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70" s="4">
         <v>5245</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="4">
         <v>21</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="4">
         <v>68</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E70" s="4">
         <v>199</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F70" s="4">
         <v>195</v>
       </c>
-      <c r="G70" s="5">
+      <c r="G70" s="4">
         <v>464</v>
       </c>
-      <c r="H70" s="5">
+      <c r="H70" s="4">
         <v>894</v>
       </c>
-      <c r="I70" s="5">
+      <c r="I70" s="4">
         <v>975</v>
       </c>
-      <c r="J70" s="5">
+      <c r="J70" s="4">
         <v>997</v>
       </c>
-      <c r="K70" s="5">
+      <c r="K70" s="4">
         <v>732</v>
       </c>
-      <c r="L70" s="5">
+      <c r="L70" s="4">
         <v>448</v>
       </c>
-      <c r="M70" s="5">
+      <c r="M70" s="4">
         <v>178</v>
       </c>
-      <c r="N70" s="5">
+      <c r="N70" s="4">
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A71" s="8" t="s">
+    <row r="71" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B71" s="9">
+      <c r="B71" s="8">
         <v>388</v>
       </c>
-      <c r="C71" s="9">
+      <c r="C71" s="8">
         <v>1</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D71" s="8">
         <v>1</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E71" s="8">
         <v>4</v>
       </c>
-      <c r="F71" s="9">
+      <c r="F71" s="8">
         <v>10</v>
       </c>
-      <c r="G71" s="9">
+      <c r="G71" s="8">
         <v>36</v>
       </c>
-      <c r="H71" s="9">
+      <c r="H71" s="8">
         <v>61</v>
       </c>
-      <c r="I71" s="9">
+      <c r="I71" s="8">
         <v>102</v>
       </c>
-      <c r="J71" s="9">
+      <c r="J71" s="8">
         <v>96</v>
       </c>
-      <c r="K71" s="9">
+      <c r="K71" s="8">
         <v>46</v>
       </c>
-      <c r="L71" s="9">
+      <c r="L71" s="8">
         <v>18</v>
       </c>
-      <c r="M71" s="9">
+      <c r="M71" s="8">
         <v>9</v>
       </c>
-      <c r="N71" s="9">
+      <c r="N71" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A72" s="8" t="s">
+    <row r="72" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B72" s="9">
+      <c r="B72" s="8">
         <v>2633</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C72" s="8">
         <v>10</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D72" s="8">
         <v>51</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E72" s="8">
         <v>109</v>
       </c>
-      <c r="F72" s="9">
+      <c r="F72" s="8">
         <v>74</v>
       </c>
-      <c r="G72" s="9">
+      <c r="G72" s="8">
         <v>251</v>
       </c>
-      <c r="H72" s="9">
+      <c r="H72" s="8">
         <v>443</v>
       </c>
-      <c r="I72" s="9">
+      <c r="I72" s="8">
         <v>436</v>
       </c>
-      <c r="J72" s="9">
+      <c r="J72" s="8">
         <v>579</v>
       </c>
-      <c r="K72" s="9">
+      <c r="K72" s="8">
         <v>327</v>
       </c>
-      <c r="L72" s="9">
+      <c r="L72" s="8">
         <v>203</v>
       </c>
-      <c r="M72" s="9">
+      <c r="M72" s="8">
         <v>88</v>
       </c>
-      <c r="N72" s="9">
+      <c r="N72" s="8">
         <v>62</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A73" s="8" t="s">
+    <row r="73" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B73" s="9">
+      <c r="B73" s="8">
         <v>1820</v>
       </c>
-      <c r="C73" s="9">
+      <c r="C73" s="8">
         <v>4</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D73" s="8">
         <v>7</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E73" s="8">
         <v>70</v>
       </c>
-      <c r="F73" s="9">
+      <c r="F73" s="8">
         <v>100</v>
       </c>
-      <c r="G73" s="9">
+      <c r="G73" s="8">
         <v>156</v>
       </c>
-      <c r="H73" s="9">
+      <c r="H73" s="8">
         <v>306</v>
       </c>
-      <c r="I73" s="9">
+      <c r="I73" s="8">
         <v>340</v>
       </c>
-      <c r="J73" s="9">
+      <c r="J73" s="8">
         <v>247</v>
       </c>
-      <c r="K73" s="9">
+      <c r="K73" s="8">
         <v>307</v>
       </c>
-      <c r="L73" s="9">
+      <c r="L73" s="8">
         <v>201</v>
       </c>
-      <c r="M73" s="9">
+      <c r="M73" s="8">
         <v>76</v>
       </c>
-      <c r="N73" s="9">
+      <c r="N73" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A74" s="8" t="s">
+    <row r="74" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B74" s="9">
+      <c r="B74" s="8">
         <v>404</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C74" s="8">
         <v>6</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D74" s="8">
         <v>9</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E74" s="8">
         <v>16</v>
       </c>
-      <c r="F74" s="9">
+      <c r="F74" s="8">
         <v>11</v>
       </c>
-      <c r="G74" s="9">
+      <c r="G74" s="8">
         <v>21</v>
       </c>
-      <c r="H74" s="9">
+      <c r="H74" s="8">
         <v>84</v>
       </c>
-      <c r="I74" s="9">
+      <c r="I74" s="8">
         <v>97</v>
       </c>
-      <c r="J74" s="9">
+      <c r="J74" s="8">
         <v>75</v>
       </c>
-      <c r="K74" s="9">
+      <c r="K74" s="8">
         <v>52</v>
       </c>
-      <c r="L74" s="9">
+      <c r="L74" s="8">
         <v>26</v>
       </c>
-      <c r="M74" s="9">
+      <c r="M74" s="8">
         <v>5</v>
       </c>
-      <c r="N74" s="9">
+      <c r="N74" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A75" s="10" t="s">
+    <row r="75" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B75" s="4">
         <v>15100</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75" s="4">
         <v>213</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="4">
         <v>282</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E75" s="4">
         <v>506</v>
       </c>
-      <c r="F75" s="5">
+      <c r="F75" s="4">
         <v>509</v>
       </c>
-      <c r="G75" s="5">
+      <c r="G75" s="4">
         <v>1092</v>
       </c>
-      <c r="H75" s="5">
+      <c r="H75" s="4">
         <v>1987</v>
       </c>
-      <c r="I75" s="5">
+      <c r="I75" s="4">
         <v>2923</v>
       </c>
-      <c r="J75" s="5">
+      <c r="J75" s="4">
         <v>3661</v>
       </c>
-      <c r="K75" s="5">
+      <c r="K75" s="4">
         <v>2522</v>
       </c>
-      <c r="L75" s="5">
+      <c r="L75" s="4">
         <v>776</v>
       </c>
-      <c r="M75" s="5">
+      <c r="M75" s="4">
         <v>414</v>
       </c>
-      <c r="N75" s="5">
+      <c r="N75" s="4">
         <v>215</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A76" s="8" t="s">
+    <row r="76" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B76" s="9">
+      <c r="B76" s="8">
         <v>3889</v>
       </c>
-      <c r="C76" s="9">
+      <c r="C76" s="8">
         <v>60</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D76" s="8">
         <v>110</v>
       </c>
-      <c r="E76" s="9">
+      <c r="E76" s="8">
         <v>125</v>
       </c>
-      <c r="F76" s="9">
+      <c r="F76" s="8">
         <v>102</v>
       </c>
-      <c r="G76" s="9">
+      <c r="G76" s="8">
         <v>182</v>
       </c>
-      <c r="H76" s="9">
+      <c r="H76" s="8">
         <v>406</v>
       </c>
-      <c r="I76" s="9">
+      <c r="I76" s="8">
         <v>735</v>
       </c>
-      <c r="J76" s="9">
+      <c r="J76" s="8">
         <v>986</v>
       </c>
-      <c r="K76" s="9">
+      <c r="K76" s="8">
         <v>737</v>
       </c>
-      <c r="L76" s="9">
+      <c r="L76" s="8">
         <v>258</v>
       </c>
-      <c r="M76" s="9">
+      <c r="M76" s="8">
         <v>102</v>
       </c>
-      <c r="N76" s="9">
+      <c r="N76" s="8">
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A77" s="8" t="s">
+    <row r="77" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B77" s="9">
+      <c r="B77" s="8">
         <v>952</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C77" s="8">
         <v>17</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D77" s="8">
         <v>36</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E77" s="8">
         <v>58</v>
       </c>
-      <c r="F77" s="9">
+      <c r="F77" s="8">
         <v>30</v>
       </c>
-      <c r="G77" s="9">
+      <c r="G77" s="8">
         <v>95</v>
       </c>
-      <c r="H77" s="9">
+      <c r="H77" s="8">
         <v>128</v>
       </c>
-      <c r="I77" s="9">
+      <c r="I77" s="8">
         <v>210</v>
       </c>
-      <c r="J77" s="9">
+      <c r="J77" s="8">
         <v>192</v>
       </c>
-      <c r="K77" s="9">
+      <c r="K77" s="8">
         <v>115</v>
       </c>
-      <c r="L77" s="9">
+      <c r="L77" s="8">
         <v>40</v>
       </c>
-      <c r="M77" s="9">
+      <c r="M77" s="8">
         <v>23</v>
       </c>
-      <c r="N77" s="9">
+      <c r="N77" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A78" s="8" t="s">
+    <row r="78" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B78" s="9">
+      <c r="B78" s="8">
         <v>5620</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C78" s="8">
         <v>94</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D78" s="8">
         <v>82</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E78" s="8">
         <v>183</v>
       </c>
-      <c r="F78" s="9">
+      <c r="F78" s="8">
         <v>167</v>
       </c>
-      <c r="G78" s="9">
+      <c r="G78" s="8">
         <v>376</v>
       </c>
-      <c r="H78" s="9">
+      <c r="H78" s="8">
         <v>769</v>
       </c>
-      <c r="I78" s="9">
+      <c r="I78" s="8">
         <v>1081</v>
       </c>
-      <c r="J78" s="9">
+      <c r="J78" s="8">
         <v>1290</v>
       </c>
-      <c r="K78" s="9">
+      <c r="K78" s="8">
         <v>964</v>
       </c>
-      <c r="L78" s="9">
+      <c r="L78" s="8">
         <v>313</v>
       </c>
-      <c r="M78" s="9">
+      <c r="M78" s="8">
         <v>214</v>
       </c>
-      <c r="N78" s="9">
+      <c r="N78" s="8">
         <v>87</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A79" s="8" t="s">
+    <row r="79" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B79" s="9">
+      <c r="B79" s="8">
         <v>4639</v>
       </c>
-      <c r="C79" s="9">
+      <c r="C79" s="8">
         <v>42</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D79" s="8">
         <v>54</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E79" s="8">
         <v>140</v>
       </c>
-      <c r="F79" s="9">
+      <c r="F79" s="8">
         <v>210</v>
       </c>
-      <c r="G79" s="9">
+      <c r="G79" s="8">
         <v>439</v>
       </c>
-      <c r="H79" s="9">
+      <c r="H79" s="8">
         <v>684</v>
       </c>
-      <c r="I79" s="9">
+      <c r="I79" s="8">
         <v>897</v>
       </c>
-      <c r="J79" s="9">
+      <c r="J79" s="8">
         <v>1193</v>
       </c>
-      <c r="K79" s="9">
+      <c r="K79" s="8">
         <v>706</v>
       </c>
-      <c r="L79" s="9">
+      <c r="L79" s="8">
         <v>165</v>
       </c>
-      <c r="M79" s="9">
+      <c r="M79" s="8">
         <v>75</v>
       </c>
-      <c r="N79" s="9">
+      <c r="N79" s="8">
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A80" s="6" t="s">
+    <row r="80" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B80" s="6">
         <v>21254</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C80" s="6">
         <v>270</v>
       </c>
-      <c r="D80" s="7">
+      <c r="D80" s="6">
         <v>272</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E80" s="6">
         <v>397</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F80" s="6">
         <v>488</v>
       </c>
-      <c r="G80" s="7">
+      <c r="G80" s="6">
         <v>850</v>
       </c>
-      <c r="H80" s="7">
+      <c r="H80" s="6">
         <v>2124</v>
       </c>
-      <c r="I80" s="7">
+      <c r="I80" s="6">
         <v>5046</v>
       </c>
-      <c r="J80" s="7">
+      <c r="J80" s="6">
         <v>6241</v>
       </c>
-      <c r="K80" s="7">
+      <c r="K80" s="6">
         <v>3454</v>
       </c>
-      <c r="L80" s="7">
+      <c r="L80" s="6">
         <v>1246</v>
       </c>
-      <c r="M80" s="7">
+      <c r="M80" s="6">
         <v>547</v>
       </c>
-      <c r="N80" s="7">
+      <c r="N80" s="6">
         <v>319</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A81" s="4" t="s">
+    <row r="81" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B81" s="5">
+      <c r="B81" s="4">
         <v>9252</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C81" s="4">
         <v>60</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="4">
         <v>49</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E81" s="4">
         <v>73</v>
       </c>
-      <c r="F81" s="5">
+      <c r="F81" s="4">
         <v>92</v>
       </c>
-      <c r="G81" s="5">
+      <c r="G81" s="4">
         <v>287</v>
       </c>
-      <c r="H81" s="5">
+      <c r="H81" s="4">
         <v>780</v>
       </c>
-      <c r="I81" s="5">
+      <c r="I81" s="4">
         <v>2433</v>
       </c>
-      <c r="J81" s="5">
+      <c r="J81" s="4">
         <v>3232</v>
       </c>
-      <c r="K81" s="5">
+      <c r="K81" s="4">
         <v>1616</v>
       </c>
-      <c r="L81" s="5">
+      <c r="L81" s="4">
         <v>442</v>
       </c>
-      <c r="M81" s="5">
+      <c r="M81" s="4">
         <v>122</v>
       </c>
-      <c r="N81" s="5">
+      <c r="N81" s="4">
         <v>66</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A82" s="8" t="s">
+    <row r="82" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B82" s="9">
+      <c r="B82" s="8">
         <v>6546</v>
       </c>
-      <c r="C82" s="9">
+      <c r="C82" s="8">
         <v>44</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D82" s="8">
         <v>30</v>
       </c>
-      <c r="E82" s="9">
+      <c r="E82" s="8">
         <v>44</v>
       </c>
-      <c r="F82" s="9">
+      <c r="F82" s="8">
         <v>45</v>
       </c>
-      <c r="G82" s="9">
+      <c r="G82" s="8">
         <v>158</v>
       </c>
-      <c r="H82" s="9">
+      <c r="H82" s="8">
         <v>525</v>
       </c>
-      <c r="I82" s="9">
+      <c r="I82" s="8">
         <v>1850</v>
       </c>
-      <c r="J82" s="9">
+      <c r="J82" s="8">
         <v>2304</v>
       </c>
-      <c r="K82" s="9">
+      <c r="K82" s="8">
         <v>1153</v>
       </c>
-      <c r="L82" s="9">
+      <c r="L82" s="8">
         <v>283</v>
       </c>
-      <c r="M82" s="9">
+      <c r="M82" s="8">
         <v>69</v>
       </c>
-      <c r="N82" s="9">
+      <c r="N82" s="8">
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A83" s="8" t="s">
+    <row r="83" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B83" s="9">
+      <c r="B83" s="8">
         <v>1525</v>
       </c>
-      <c r="C83" s="9">
+      <c r="C83" s="8">
         <v>11</v>
       </c>
-      <c r="D83" s="9">
+      <c r="D83" s="8">
         <v>13</v>
       </c>
-      <c r="E83" s="9">
+      <c r="E83" s="8">
         <v>17</v>
       </c>
-      <c r="F83" s="9">
+      <c r="F83" s="8">
         <v>21</v>
       </c>
-      <c r="G83" s="9">
+      <c r="G83" s="8">
         <v>39</v>
       </c>
-      <c r="H83" s="9">
+      <c r="H83" s="8">
         <v>90</v>
       </c>
-      <c r="I83" s="9">
+      <c r="I83" s="8">
         <v>305</v>
       </c>
-      <c r="J83" s="9">
+      <c r="J83" s="8">
         <v>583</v>
       </c>
-      <c r="K83" s="9">
+      <c r="K83" s="8">
         <v>287</v>
       </c>
-      <c r="L83" s="9">
+      <c r="L83" s="8">
         <v>117</v>
       </c>
-      <c r="M83" s="9">
+      <c r="M83" s="8">
         <v>29</v>
       </c>
-      <c r="N83" s="9">
+      <c r="N83" s="8">
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A84" s="8" t="s">
+    <row r="84" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B84" s="9">
+      <c r="B84" s="8">
         <v>532</v>
       </c>
-      <c r="C84" s="9">
+      <c r="C84" s="8">
         <v>3</v>
       </c>
-      <c r="D84" s="9">
+      <c r="D84" s="8">
         <v>5</v>
       </c>
-      <c r="E84" s="9">
+      <c r="E84" s="8">
         <v>11</v>
       </c>
-      <c r="F84" s="9">
+      <c r="F84" s="8">
         <v>17</v>
       </c>
-      <c r="G84" s="9">
+      <c r="G84" s="8">
         <v>39</v>
       </c>
-      <c r="H84" s="9">
+      <c r="H84" s="8">
         <v>97</v>
       </c>
-      <c r="I84" s="9">
+      <c r="I84" s="8">
         <v>129</v>
       </c>
-      <c r="J84" s="9">
+      <c r="J84" s="8">
         <v>135</v>
       </c>
-      <c r="K84" s="9">
+      <c r="K84" s="8">
         <v>51</v>
       </c>
-      <c r="L84" s="9">
+      <c r="L84" s="8">
         <v>22</v>
       </c>
-      <c r="M84" s="9">
+      <c r="M84" s="8">
         <v>15</v>
       </c>
-      <c r="N84" s="9">
+      <c r="N84" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A85" s="8" t="s">
+    <row r="85" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B85" s="9">
+      <c r="B85" s="8">
         <v>649</v>
       </c>
-      <c r="C85" s="9">
+      <c r="C85" s="8">
         <v>2</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D85" s="8">
         <v>1</v>
       </c>
-      <c r="E85" s="9">
+      <c r="E85" s="8">
         <v>1</v>
       </c>
-      <c r="F85" s="9">
+      <c r="F85" s="8">
         <v>9</v>
       </c>
-      <c r="G85" s="9">
+      <c r="G85" s="8">
         <v>51</v>
       </c>
-      <c r="H85" s="9">
+      <c r="H85" s="8">
         <v>68</v>
       </c>
-      <c r="I85" s="9">
+      <c r="I85" s="8">
         <v>149</v>
       </c>
-      <c r="J85" s="9">
+      <c r="J85" s="8">
         <v>210</v>
       </c>
-      <c r="K85" s="9">
+      <c r="K85" s="8">
         <v>125</v>
       </c>
-      <c r="L85" s="9">
+      <c r="L85" s="8">
         <v>20</v>
       </c>
-      <c r="M85" s="9">
+      <c r="M85" s="8">
         <v>9</v>
       </c>
-      <c r="N85" s="9">
+      <c r="N85" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A86" s="4" t="s">
+    <row r="86" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B86" s="5">
+      <c r="B86" s="4">
         <v>4319</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C86" s="4">
         <v>23</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86" s="4">
         <v>17</v>
       </c>
-      <c r="E86" s="5">
+      <c r="E86" s="4">
         <v>21</v>
       </c>
-      <c r="F86" s="5">
+      <c r="F86" s="4">
         <v>36</v>
       </c>
-      <c r="G86" s="5">
+      <c r="G86" s="4">
         <v>107</v>
       </c>
-      <c r="H86" s="5">
+      <c r="H86" s="4">
         <v>448</v>
       </c>
-      <c r="I86" s="5">
+      <c r="I86" s="4">
         <v>1072</v>
       </c>
-      <c r="J86" s="5">
+      <c r="J86" s="4">
         <v>1394</v>
       </c>
-      <c r="K86" s="5">
+      <c r="K86" s="4">
         <v>726</v>
       </c>
-      <c r="L86" s="5">
+      <c r="L86" s="4">
         <v>318</v>
       </c>
-      <c r="M86" s="5">
+      <c r="M86" s="4">
         <v>103</v>
       </c>
-      <c r="N86" s="5">
+      <c r="N86" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A87" s="8" t="s">
+    <row r="87" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B87" s="9">
+      <c r="B87" s="8">
         <v>2349</v>
       </c>
-      <c r="C87" s="9">
+      <c r="C87" s="8">
         <v>15</v>
       </c>
-      <c r="D87" s="9">
+      <c r="D87" s="8">
         <v>8</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E87" s="8">
         <v>9</v>
       </c>
-      <c r="F87" s="9">
+      <c r="F87" s="8">
         <v>10</v>
       </c>
-      <c r="G87" s="9">
+      <c r="G87" s="8">
         <v>52</v>
       </c>
-      <c r="H87" s="9">
+      <c r="H87" s="8">
         <v>213</v>
       </c>
-      <c r="I87" s="9">
+      <c r="I87" s="8">
         <v>571</v>
       </c>
-      <c r="J87" s="9">
+      <c r="J87" s="8">
         <v>707</v>
       </c>
-      <c r="K87" s="9">
+      <c r="K87" s="8">
         <v>434</v>
       </c>
-      <c r="L87" s="9">
+      <c r="L87" s="8">
         <v>227</v>
       </c>
-      <c r="M87" s="9">
+      <c r="M87" s="8">
         <v>68</v>
       </c>
-      <c r="N87" s="9">
+      <c r="N87" s="8">
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A88" s="8" t="s">
+    <row r="88" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B88" s="9">
+      <c r="B88" s="8">
         <v>278</v>
       </c>
-      <c r="C88" s="9">
+      <c r="C88" s="8">
         <v>2</v>
       </c>
-      <c r="D88" s="9">
+      <c r="D88" s="8">
         <v>2</v>
       </c>
-      <c r="E88" s="9">
+      <c r="E88" s="8">
         <v>4</v>
       </c>
-      <c r="F88" s="9">
+      <c r="F88" s="8">
         <v>13</v>
       </c>
-      <c r="G88" s="9">
+      <c r="G88" s="8">
         <v>21</v>
       </c>
-      <c r="H88" s="9">
+      <c r="H88" s="8">
         <v>63</v>
       </c>
-      <c r="I88" s="9">
+      <c r="I88" s="8">
         <v>42</v>
       </c>
-      <c r="J88" s="9">
+      <c r="J88" s="8">
         <v>55</v>
       </c>
-      <c r="K88" s="9">
+      <c r="K88" s="8">
         <v>36</v>
       </c>
-      <c r="L88" s="9">
+      <c r="L88" s="8">
         <v>31</v>
       </c>
-      <c r="M88" s="9">
+      <c r="M88" s="8">
         <v>6</v>
       </c>
-      <c r="N88" s="9">
+      <c r="N88" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A89" s="8" t="s">
+    <row r="89" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B89" s="9">
+      <c r="B89" s="8">
         <v>1366</v>
       </c>
-      <c r="C89" s="9">
+      <c r="C89" s="8">
         <v>2</v>
       </c>
-      <c r="D89" s="9">
+      <c r="D89" s="8">
         <v>3</v>
       </c>
-      <c r="E89" s="9">
+      <c r="E89" s="8">
         <v>2</v>
       </c>
-      <c r="F89" s="9">
+      <c r="F89" s="8">
         <v>4</v>
       </c>
-      <c r="G89" s="9">
+      <c r="G89" s="8">
         <v>17</v>
       </c>
-      <c r="H89" s="9">
+      <c r="H89" s="8">
         <v>147</v>
       </c>
-      <c r="I89" s="9">
+      <c r="I89" s="8">
         <v>409</v>
       </c>
-      <c r="J89" s="9">
+      <c r="J89" s="8">
         <v>522</v>
       </c>
-      <c r="K89" s="9">
+      <c r="K89" s="8">
         <v>194</v>
       </c>
-      <c r="L89" s="9">
+      <c r="L89" s="8">
         <v>38</v>
       </c>
-      <c r="M89" s="9">
+      <c r="M89" s="8">
         <v>14</v>
       </c>
-      <c r="N89" s="9">
+      <c r="N89" s="8">
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A90" s="8" t="s">
+    <row r="90" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B90" s="9">
+      <c r="B90" s="8">
         <v>326</v>
       </c>
-      <c r="C90" s="9">
+      <c r="C90" s="8">
         <v>4</v>
       </c>
-      <c r="D90" s="9">
+      <c r="D90" s="8">
         <v>4</v>
       </c>
-      <c r="E90" s="9">
+      <c r="E90" s="8">
         <v>6</v>
       </c>
-      <c r="F90" s="9">
+      <c r="F90" s="8">
         <v>9</v>
       </c>
-      <c r="G90" s="9">
+      <c r="G90" s="8">
         <v>17</v>
       </c>
-      <c r="H90" s="9">
+      <c r="H90" s="8">
         <v>25</v>
       </c>
-      <c r="I90" s="9">
+      <c r="I90" s="8">
         <v>50</v>
       </c>
-      <c r="J90" s="9">
+      <c r="J90" s="8">
         <v>110</v>
       </c>
-      <c r="K90" s="9">
+      <c r="K90" s="8">
         <v>62</v>
       </c>
-      <c r="L90" s="9">
+      <c r="L90" s="8">
         <v>22</v>
       </c>
-      <c r="M90" s="9">
+      <c r="M90" s="8">
         <v>15</v>
       </c>
-      <c r="N90" s="9">
+      <c r="N90" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A91" s="4" t="s">
+    <row r="91" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B91" s="5">
+      <c r="B91" s="4">
         <v>5881</v>
       </c>
-      <c r="C91" s="5">
+      <c r="C91" s="4">
         <v>95</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D91" s="4">
         <v>105</v>
       </c>
-      <c r="E91" s="5">
+      <c r="E91" s="4">
         <v>181</v>
       </c>
-      <c r="F91" s="5">
+      <c r="F91" s="4">
         <v>304</v>
       </c>
-      <c r="G91" s="5">
+      <c r="G91" s="4">
         <v>403</v>
       </c>
-      <c r="H91" s="5">
+      <c r="H91" s="4">
         <v>792</v>
       </c>
-      <c r="I91" s="5">
+      <c r="I91" s="4">
         <v>1342</v>
       </c>
-      <c r="J91" s="5">
+      <c r="J91" s="4">
         <v>1260</v>
       </c>
-      <c r="K91" s="5">
+      <c r="K91" s="4">
         <v>821</v>
       </c>
-      <c r="L91" s="5">
+      <c r="L91" s="4">
         <v>308</v>
       </c>
-      <c r="M91" s="5">
+      <c r="M91" s="4">
         <v>172</v>
       </c>
-      <c r="N91" s="5">
+      <c r="N91" s="4">
         <v>98</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A92" s="8" t="s">
+    <row r="92" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B92" s="9">
+      <c r="B92" s="8">
         <v>2300</v>
       </c>
-      <c r="C92" s="9">
+      <c r="C92" s="8">
         <v>18</v>
       </c>
-      <c r="D92" s="9">
+      <c r="D92" s="8">
         <v>36</v>
       </c>
-      <c r="E92" s="9">
+      <c r="E92" s="8">
         <v>61</v>
       </c>
-      <c r="F92" s="9">
+      <c r="F92" s="8">
         <v>57</v>
       </c>
-      <c r="G92" s="9">
+      <c r="G92" s="8">
         <v>125</v>
       </c>
-      <c r="H92" s="9">
+      <c r="H92" s="8">
         <v>334</v>
       </c>
-      <c r="I92" s="9">
+      <c r="I92" s="8">
         <v>591</v>
       </c>
-      <c r="J92" s="9">
+      <c r="J92" s="8">
         <v>547</v>
       </c>
-      <c r="K92" s="9">
+      <c r="K92" s="8">
         <v>346</v>
       </c>
-      <c r="L92" s="9">
+      <c r="L92" s="8">
         <v>125</v>
       </c>
-      <c r="M92" s="9">
+      <c r="M92" s="8">
         <v>41</v>
       </c>
-      <c r="N92" s="9">
+      <c r="N92" s="8">
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A93" s="8" t="s">
+    <row r="93" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B93" s="9">
+      <c r="B93" s="8">
         <v>821</v>
       </c>
-      <c r="C93" s="9">
+      <c r="C93" s="8">
         <v>24</v>
       </c>
-      <c r="D93" s="9">
+      <c r="D93" s="8">
         <v>32</v>
       </c>
-      <c r="E93" s="9">
+      <c r="E93" s="8">
         <v>35</v>
       </c>
-      <c r="F93" s="9">
+      <c r="F93" s="8">
         <v>37</v>
       </c>
-      <c r="G93" s="9">
+      <c r="G93" s="8">
         <v>52</v>
       </c>
-      <c r="H93" s="9">
+      <c r="H93" s="8">
         <v>67</v>
       </c>
-      <c r="I93" s="9">
+      <c r="I93" s="8">
         <v>85</v>
       </c>
-      <c r="J93" s="9">
+      <c r="J93" s="8">
         <v>167</v>
       </c>
-      <c r="K93" s="9">
+      <c r="K93" s="8">
         <v>167</v>
       </c>
-      <c r="L93" s="9">
+      <c r="L93" s="8">
         <v>83</v>
       </c>
-      <c r="M93" s="9">
+      <c r="M93" s="8">
         <v>48</v>
       </c>
-      <c r="N93" s="9">
+      <c r="N93" s="8">
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A94" s="8" t="s">
+    <row r="94" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B94" s="9">
+      <c r="B94" s="8">
         <v>445</v>
       </c>
-      <c r="C94" s="9">
+      <c r="C94" s="8">
         <v>17</v>
       </c>
-      <c r="D94" s="9">
+      <c r="D94" s="8">
         <v>14</v>
       </c>
-      <c r="E94" s="9">
+      <c r="E94" s="8">
         <v>24</v>
       </c>
-      <c r="F94" s="9">
+      <c r="F94" s="8">
         <v>42</v>
       </c>
-      <c r="G94" s="9">
+      <c r="G94" s="8">
         <v>27</v>
       </c>
-      <c r="H94" s="9">
+      <c r="H94" s="8">
         <v>27</v>
       </c>
-      <c r="I94" s="9">
+      <c r="I94" s="8">
         <v>69</v>
       </c>
-      <c r="J94" s="9">
+      <c r="J94" s="8">
         <v>90</v>
       </c>
-      <c r="K94" s="9">
+      <c r="K94" s="8">
         <v>70</v>
       </c>
-      <c r="L94" s="9">
+      <c r="L94" s="8">
         <v>33</v>
       </c>
-      <c r="M94" s="9">
+      <c r="M94" s="8">
         <v>20</v>
       </c>
-      <c r="N94" s="9">
+      <c r="N94" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A95" s="8" t="s">
+    <row r="95" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B95" s="9">
+      <c r="B95" s="8">
         <v>2087</v>
       </c>
-      <c r="C95" s="9">
+      <c r="C95" s="8">
         <v>34</v>
       </c>
-      <c r="D95" s="9">
+      <c r="D95" s="8">
         <v>21</v>
       </c>
-      <c r="E95" s="9">
+      <c r="E95" s="8">
         <v>56</v>
       </c>
-      <c r="F95" s="9">
+      <c r="F95" s="8">
         <v>158</v>
       </c>
-      <c r="G95" s="9">
+      <c r="G95" s="8">
         <v>187</v>
       </c>
-      <c r="H95" s="9">
+      <c r="H95" s="8">
         <v>351</v>
       </c>
-      <c r="I95" s="9">
+      <c r="I95" s="8">
         <v>569</v>
       </c>
-      <c r="J95" s="9">
+      <c r="J95" s="8">
         <v>411</v>
       </c>
-      <c r="K95" s="9">
+      <c r="K95" s="8">
         <v>189</v>
       </c>
-      <c r="L95" s="9">
+      <c r="L95" s="8">
         <v>36</v>
       </c>
-      <c r="M95" s="9">
+      <c r="M95" s="8">
         <v>47</v>
       </c>
-      <c r="N95" s="9">
+      <c r="N95" s="8">
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A96" s="8" t="s">
+    <row r="96" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B96" s="9">
+      <c r="B96" s="8">
         <v>228</v>
       </c>
-      <c r="C96" s="9">
+      <c r="C96" s="8">
         <v>2</v>
       </c>
-      <c r="D96" s="9">
+      <c r="D96" s="8">
         <v>2</v>
       </c>
-      <c r="E96" s="9">
+      <c r="E96" s="8">
         <v>5</v>
       </c>
-      <c r="F96" s="9">
+      <c r="F96" s="8">
         <v>10</v>
       </c>
-      <c r="G96" s="9">
+      <c r="G96" s="8">
         <v>12</v>
       </c>
-      <c r="H96" s="9">
+      <c r="H96" s="8">
         <v>13</v>
       </c>
-      <c r="I96" s="9">
+      <c r="I96" s="8">
         <v>28</v>
       </c>
-      <c r="J96" s="9">
+      <c r="J96" s="8">
         <v>45</v>
       </c>
-      <c r="K96" s="9">
+      <c r="K96" s="8">
         <v>49</v>
       </c>
-      <c r="L96" s="9">
+      <c r="L96" s="8">
         <v>31</v>
       </c>
-      <c r="M96" s="9">
+      <c r="M96" s="8">
         <v>16</v>
       </c>
-      <c r="N96" s="9">
+      <c r="N96" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A97" s="4" t="s">
+    <row r="97" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B97" s="5">
+      <c r="B97" s="4">
         <v>1802</v>
       </c>
-      <c r="C97" s="5">
+      <c r="C97" s="4">
         <v>92</v>
       </c>
-      <c r="D97" s="5">
+      <c r="D97" s="4">
         <v>101</v>
       </c>
-      <c r="E97" s="5">
+      <c r="E97" s="4">
         <v>122</v>
       </c>
-      <c r="F97" s="5">
+      <c r="F97" s="4">
         <v>56</v>
       </c>
-      <c r="G97" s="5">
+      <c r="G97" s="4">
         <v>53</v>
       </c>
-      <c r="H97" s="5">
+      <c r="H97" s="4">
         <v>104</v>
       </c>
-      <c r="I97" s="5">
+      <c r="I97" s="4">
         <v>199</v>
       </c>
-      <c r="J97" s="5">
+      <c r="J97" s="4">
         <v>355</v>
       </c>
-      <c r="K97" s="5">
+      <c r="K97" s="4">
         <v>291</v>
       </c>
-      <c r="L97" s="5">
+      <c r="L97" s="4">
         <v>178</v>
       </c>
-      <c r="M97" s="5">
+      <c r="M97" s="4">
         <v>150</v>
       </c>
-      <c r="N97" s="5">
+      <c r="N97" s="4">
         <v>101</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A98" s="8" t="s">
+    <row r="98" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B98" s="9">
+      <c r="B98" s="8">
         <v>541</v>
       </c>
-      <c r="C98" s="9">
+      <c r="C98" s="8">
         <v>26</v>
       </c>
-      <c r="D98" s="9">
+      <c r="D98" s="8">
         <v>31</v>
       </c>
-      <c r="E98" s="9">
+      <c r="E98" s="8">
         <v>47</v>
       </c>
-      <c r="F98" s="9">
+      <c r="F98" s="8">
         <v>27</v>
       </c>
-      <c r="G98" s="9">
+      <c r="G98" s="8">
         <v>25</v>
       </c>
-      <c r="H98" s="9">
+      <c r="H98" s="8">
         <v>39</v>
       </c>
-      <c r="I98" s="9">
+      <c r="I98" s="8">
         <v>66</v>
       </c>
-      <c r="J98" s="9">
+      <c r="J98" s="8">
         <v>116</v>
       </c>
-      <c r="K98" s="9">
+      <c r="K98" s="8">
         <v>73</v>
       </c>
-      <c r="L98" s="9">
+      <c r="L98" s="8">
         <v>45</v>
       </c>
-      <c r="M98" s="9">
+      <c r="M98" s="8">
         <v>26</v>
       </c>
-      <c r="N98" s="9">
+      <c r="N98" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A99" s="8" t="s">
+    <row r="99" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B99" s="9">
+      <c r="B99" s="8">
         <v>696</v>
       </c>
-      <c r="C99" s="9">
+      <c r="C99" s="8">
         <v>35</v>
       </c>
-      <c r="D99" s="9">
+      <c r="D99" s="8">
         <v>33</v>
       </c>
-      <c r="E99" s="9">
+      <c r="E99" s="8">
         <v>35</v>
       </c>
-      <c r="F99" s="9">
+      <c r="F99" s="8">
         <v>15</v>
       </c>
-      <c r="G99" s="9">
+      <c r="G99" s="8">
         <v>19</v>
       </c>
-      <c r="H99" s="9">
+      <c r="H99" s="8">
         <v>34</v>
       </c>
-      <c r="I99" s="9">
+      <c r="I99" s="8">
         <v>81</v>
       </c>
-      <c r="J99" s="9">
+      <c r="J99" s="8">
         <v>141</v>
       </c>
-      <c r="K99" s="9">
+      <c r="K99" s="8">
         <v>108</v>
       </c>
-      <c r="L99" s="9">
+      <c r="L99" s="8">
         <v>66</v>
       </c>
-      <c r="M99" s="9">
+      <c r="M99" s="8">
         <v>81</v>
       </c>
-      <c r="N99" s="9">
+      <c r="N99" s="8">
         <v>48</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A100" s="8" t="s">
+    <row r="100" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B100" s="9">
+      <c r="B100" s="8">
         <v>412</v>
       </c>
-      <c r="C100" s="9">
+      <c r="C100" s="8">
         <v>23</v>
       </c>
-      <c r="D100" s="9">
+      <c r="D100" s="8">
         <v>32</v>
       </c>
-      <c r="E100" s="9">
+      <c r="E100" s="8">
         <v>35</v>
       </c>
-      <c r="F100" s="9">
+      <c r="F100" s="8">
         <v>9</v>
       </c>
-      <c r="G100" s="9">
+      <c r="G100" s="8">
         <v>5</v>
       </c>
-      <c r="H100" s="9">
+      <c r="H100" s="8">
         <v>14</v>
       </c>
-      <c r="I100" s="9">
+      <c r="I100" s="8">
         <v>21</v>
       </c>
-      <c r="J100" s="9">
+      <c r="J100" s="8">
         <v>74</v>
       </c>
-      <c r="K100" s="9">
+      <c r="K100" s="8">
         <v>87</v>
       </c>
-      <c r="L100" s="9">
+      <c r="L100" s="8">
         <v>49</v>
       </c>
-      <c r="M100" s="9">
+      <c r="M100" s="8">
         <v>35</v>
       </c>
-      <c r="N100" s="9">
+      <c r="N100" s="8">
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A101" s="8" t="s">
+    <row r="101" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B101" s="9">
+      <c r="B101" s="8">
         <v>153</v>
       </c>
-      <c r="C101" s="9">
+      <c r="C101" s="8">
         <v>8</v>
       </c>
-      <c r="D101" s="9">
+      <c r="D101" s="8">
         <v>5</v>
       </c>
-      <c r="E101" s="9">
+      <c r="E101" s="8">
         <v>5</v>
       </c>
-      <c r="F101" s="9">
+      <c r="F101" s="8">
         <v>5</v>
       </c>
-      <c r="G101" s="9">
+      <c r="G101" s="8">
         <v>4</v>
       </c>
-      <c r="H101" s="9">
+      <c r="H101" s="8">
         <v>17</v>
       </c>
-      <c r="I101" s="9">
+      <c r="I101" s="8">
         <v>31</v>
       </c>
-      <c r="J101" s="9">
+      <c r="J101" s="8">
         <v>24</v>
       </c>
-      <c r="K101" s="9">
+      <c r="K101" s="8">
         <v>23</v>
       </c>
-      <c r="L101" s="9">
+      <c r="L101" s="8">
         <v>18</v>
       </c>
-      <c r="M101" s="9">
+      <c r="M101" s="8">
         <v>8</v>
       </c>
-      <c r="N101" s="9">
+      <c r="N101" s="8">
         <v>5</v>
       </c>
     </row>
